--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>FECOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +985,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -983,11 +1002,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -995,12 +1014,12 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>-2000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1010,11 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,16 +1097,17 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1090,20 +1116,20 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>-1900</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1111,13 +1137,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1134,20 +1163,20 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1155,13 +1184,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1205,25 +1238,28 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1234,40 +1270,43 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>1900</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1733,69 +1802,75 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K41" s="3">
         <v>400</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
       </c>
       <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2199,40 +2300,43 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2261,7 +2365,7 @@
         <v>1700</v>
       </c>
       <c r="L47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M47" s="3">
         <v>2000</v>
@@ -2269,14 +2373,17 @@
       <c r="N47" s="3">
         <v>2000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>2000</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2295,32 +2402,35 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2339,32 +2449,35 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,31 +2567,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,31 +2661,34 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1800</v>
       </c>
       <c r="F54" s="3">
         <v>1800</v>
       </c>
       <c r="G54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H54" s="3">
         <v>1900</v>
       </c>
       <c r="I54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J54" s="3">
         <v>2000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2100</v>
       </c>
       <c r="K54" s="3">
         <v>2100</v>
@@ -2572,19 +2697,22 @@
         <v>2100</v>
       </c>
       <c r="M54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="N54" s="3">
         <v>2200</v>
       </c>
       <c r="O54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,25 +2748,26 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2655,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2840,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,25 +2887,28 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -2787,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -2795,8 +2934,11 @@
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,25 +3169,28 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -3051,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="E72" s="3">
         <v>-18100</v>
       </c>
       <c r="F72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-18000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-17900</v>
       </c>
       <c r="H72" s="3">
         <v>-17900</v>
       </c>
       <c r="I72" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="J72" s="3">
         <v>-17800</v>
       </c>
       <c r="K72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="L72" s="3">
         <v>-17700</v>
       </c>
       <c r="M72" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="N72" s="3">
         <v>-17600</v>
       </c>
       <c r="O72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-19500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,34 +3611,37 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E76" s="3">
         <v>1700</v>
       </c>
       <c r="F76" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G76" s="3">
         <v>1800</v>
       </c>
       <c r="H76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I76" s="3">
         <v>1900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2000</v>
       </c>
       <c r="J76" s="3">
         <v>2000</v>
       </c>
       <c r="K76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L76" s="3">
         <v>2100</v>
@@ -3465,16 +3650,19 @@
         <v>2100</v>
       </c>
       <c r="N76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O76" s="3">
         <v>2200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>300</v>
       </c>
       <c r="P76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,19 +4117,19 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3925,19 +4141,22 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,39 +4672,42 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>FECOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1005,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1005,11 +1025,11 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1017,12 +1037,12 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>-2000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1032,11 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,19 +1124,20 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1119,20 +1146,20 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>-1900</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1140,13 +1167,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,10 +1184,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1166,20 +1196,20 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1187,13 +1217,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1241,25 +1275,28 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,46 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>1900</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1805,72 +1875,78 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
+        <v>300</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2303,40 +2405,43 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>400</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2368,7 +2473,7 @@
         <v>1700</v>
       </c>
       <c r="M47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="N47" s="3">
         <v>2000</v>
@@ -2376,14 +2481,17 @@
       <c r="O47" s="3">
         <v>2000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>2000</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2405,32 +2513,35 @@
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2452,32 +2563,35 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,16 +2687,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -2596,8 +2716,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2673,25 +2799,25 @@
         <v>1800</v>
       </c>
       <c r="E54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1800</v>
       </c>
       <c r="G54" s="3">
         <v>1800</v>
       </c>
       <c r="H54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I54" s="3">
         <v>1900</v>
       </c>
       <c r="J54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2100</v>
       </c>
       <c r="L54" s="3">
         <v>2100</v>
@@ -2700,19 +2826,22 @@
         <v>2100</v>
       </c>
       <c r="N54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="O54" s="3">
         <v>2200</v>
       </c>
       <c r="P54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,28 +2879,29 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2788,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -2796,31 +2927,34 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2843,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2890,28 +3027,31 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -2929,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,28 +3327,31 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -3211,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3435,46 +3609,49 @@
         <v>-18200</v>
       </c>
       <c r="E72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="F72" s="3">
         <v>-18100</v>
       </c>
       <c r="G72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-18000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-17900</v>
       </c>
       <c r="I72" s="3">
         <v>-17900</v>
       </c>
       <c r="J72" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="K72" s="3">
         <v>-17800</v>
       </c>
       <c r="L72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="M72" s="3">
         <v>-17700</v>
       </c>
       <c r="N72" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="O72" s="3">
         <v>-17600</v>
       </c>
       <c r="P72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3797,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3623,28 +3809,28 @@
         <v>1600</v>
       </c>
       <c r="E76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F76" s="3">
         <v>1700</v>
       </c>
       <c r="G76" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H76" s="3">
         <v>1800</v>
       </c>
       <c r="I76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J76" s="3">
         <v>1900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2000</v>
       </c>
       <c r="K76" s="3">
         <v>2000</v>
       </c>
       <c r="L76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="M76" s="3">
         <v>2100</v>
@@ -3653,16 +3839,19 @@
         <v>2100</v>
       </c>
       <c r="O76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P76" s="3">
         <v>2200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>300</v>
       </c>
       <c r="Q76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,31 +4322,34 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4144,19 +4361,22 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,31 +4812,34 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4675,39 +4927,42 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>FECOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1028,11 +1048,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1040,12 +1060,12 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>-2000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1055,11 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,22 +1151,23 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1149,20 +1176,20 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>-1900</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1170,13 +1197,16 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,13 +1214,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1199,20 +1229,20 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>1900</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1220,13 +1250,16 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1278,25 +1312,28 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1900</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1900</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1878,75 +1948,81 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
       </c>
       <c r="L41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M41" s="3">
         <v>400</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,13 +2489,16 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2408,45 +2510,48 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E47" s="3">
         <v>1700</v>
@@ -2476,7 +2581,7 @@
         <v>1700</v>
       </c>
       <c r="N47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="O47" s="3">
         <v>2000</v>
@@ -2484,64 +2589,70 @@
       <c r="P47" s="3">
         <v>2000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>2000</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2566,32 +2677,35 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,19 +2807,22 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2719,8 +2839,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,37 +2913,40 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E54" s="3">
         <v>1800</v>
       </c>
       <c r="F54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G54" s="3">
         <v>1700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1800</v>
       </c>
       <c r="H54" s="3">
         <v>1800</v>
       </c>
       <c r="I54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J54" s="3">
         <v>1900</v>
       </c>
       <c r="K54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L54" s="3">
         <v>2000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>2100</v>
       </c>
       <c r="M54" s="3">
         <v>2100</v>
@@ -2829,19 +2955,22 @@
         <v>2100</v>
       </c>
       <c r="O54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="P54" s="3">
         <v>2200</v>
       </c>
       <c r="Q54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,31 +3010,32 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2922,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -2930,17 +3061,20 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2956,8 +3090,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2980,31 +3114,34 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3030,31 +3167,34 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -3072,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,31 +3485,34 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -3372,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3612,46 +3786,49 @@
         <v>-18200</v>
       </c>
       <c r="F72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="G72" s="3">
         <v>-18100</v>
       </c>
       <c r="H72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-18000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-17900</v>
       </c>
       <c r="J72" s="3">
         <v>-17900</v>
       </c>
       <c r="K72" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="L72" s="3">
         <v>-17800</v>
       </c>
       <c r="M72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="N72" s="3">
         <v>-17700</v>
       </c>
       <c r="O72" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="P72" s="3">
         <v>-17600</v>
       </c>
       <c r="Q72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="R72" s="3">
         <v>-19500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,40 +3983,43 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E76" s="3">
         <v>1600</v>
       </c>
       <c r="F76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G76" s="3">
         <v>1700</v>
       </c>
       <c r="H76" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I76" s="3">
         <v>1800</v>
       </c>
       <c r="J76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2000</v>
       </c>
       <c r="L76" s="3">
         <v>2000</v>
       </c>
       <c r="M76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="N76" s="3">
         <v>2100</v>
@@ -3842,16 +4028,19 @@
         <v>2100</v>
       </c>
       <c r="P76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>300</v>
       </c>
       <c r="R76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,34 +4539,37 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4364,19 +4581,22 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,17 +5058,20 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4841,8 +5087,8 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4930,39 +5182,42 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>FECOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,11 +1059,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1051,11 +1071,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1063,12 +1083,12 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-2000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1078,11 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,16 +1188,16 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1179,20 +1206,20 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>-1900</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1200,13 +1227,16 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,16 +1244,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1232,20 +1262,20 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>1900</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1253,13 +1283,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,25 +1349,28 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>1900</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,52 +1490,55 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,52 +1658,55 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,52 +1714,55 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1951,25 +2021,28 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,52 +2050,55 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,110 +2162,116 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>300</v>
       </c>
       <c r="M41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N41" s="3">
         <v>400</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,16 +2591,19 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2513,40 +2615,43 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2554,7 +2659,7 @@
         <v>1800</v>
       </c>
       <c r="E47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F47" s="3">
         <v>1700</v>
@@ -2584,7 +2689,7 @@
         <v>1700</v>
       </c>
       <c r="O47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="P47" s="3">
         <v>2000</v>
@@ -2592,14 +2697,17 @@
       <c r="Q47" s="3">
         <v>2000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
+      <c r="R47" s="3">
+        <v>2000</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2624,35 +2732,38 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2680,32 +2791,35 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,22 +2927,25 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2842,8 +2962,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,40 +3039,43 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1800</v>
       </c>
       <c r="F54" s="3">
         <v>1800</v>
       </c>
       <c r="G54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H54" s="3">
         <v>1700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1800</v>
       </c>
       <c r="I54" s="3">
         <v>1800</v>
       </c>
       <c r="J54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K54" s="3">
         <v>1900</v>
       </c>
       <c r="L54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M54" s="3">
         <v>2000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>2100</v>
       </c>
       <c r="N54" s="3">
         <v>2100</v>
@@ -2958,19 +3084,22 @@
         <v>2100</v>
       </c>
       <c r="P54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="Q54" s="3">
         <v>2200</v>
       </c>
       <c r="R54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,25 +3151,25 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3056,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3064,20 +3195,23 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3093,8 +3227,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3117,17 +3251,20 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3143,8 +3280,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3170,34 +3307,37 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -3215,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,34 +3643,37 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -3533,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,13 +3945,16 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18200</v>
+        <v>-18300</v>
       </c>
       <c r="E72" s="3">
         <v>-18200</v>
@@ -3789,46 +3963,49 @@
         <v>-18200</v>
       </c>
       <c r="G72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="H72" s="3">
         <v>-18100</v>
       </c>
       <c r="I72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-18000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-17900</v>
       </c>
       <c r="K72" s="3">
         <v>-17900</v>
       </c>
       <c r="L72" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="M72" s="3">
         <v>-17800</v>
       </c>
       <c r="N72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="O72" s="3">
         <v>-17700</v>
       </c>
       <c r="P72" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="Q72" s="3">
         <v>-17600</v>
       </c>
       <c r="R72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="S72" s="3">
         <v>-19500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,43 +4169,46 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1600</v>
       </c>
       <c r="F76" s="3">
         <v>1600</v>
       </c>
       <c r="G76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H76" s="3">
         <v>1700</v>
       </c>
       <c r="I76" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J76" s="3">
         <v>1800</v>
       </c>
       <c r="K76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L76" s="3">
         <v>1900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2000</v>
       </c>
       <c r="M76" s="3">
         <v>2000</v>
       </c>
       <c r="N76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="O76" s="3">
         <v>2100</v>
@@ -4031,16 +4217,19 @@
         <v>2100</v>
       </c>
       <c r="Q76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R76" s="3">
         <v>2200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>300</v>
       </c>
       <c r="S76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,52 +4354,55 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,37 +4756,40 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4584,19 +4801,22 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,31 +5002,34 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,20 +5304,23 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5090,8 +5336,8 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,13 +5416,16 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5185,39 +5437,42 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>FECOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,11 +1081,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1074,11 +1093,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1086,12 +1105,12 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>-2000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1101,11 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1191,16 +1217,16 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1209,20 +1235,20 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>-1900</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1230,13 +1256,16 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,16 +1276,16 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1265,20 +1294,20 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>1900</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1286,13 +1315,16 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1352,25 +1385,28 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1381,52 +1417,55 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>1900</v>
       </c>
-      <c r="S21" s="3">
-        <v>-100</v>
-      </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>1900</v>
       </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2024,81 +2093,87 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,55 +2409,58 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
       </c>
       <c r="N41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O41" s="3">
         <v>400</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
       <c r="T41" s="3">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,13 +2515,16 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,19 +2692,22 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -2618,51 +2719,54 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>1800</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
         <v>1800</v>
       </c>
       <c r="F47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G47" s="3">
         <v>1700</v>
@@ -2692,7 +2796,7 @@
         <v>1700</v>
       </c>
       <c r="P47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="Q47" s="3">
         <v>2000</v>
@@ -2700,75 +2804,81 @@
       <c r="R47" s="3">
         <v>2000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="S47" s="3">
+        <v>2000</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2794,32 +2904,35 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,25 +3046,28 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2965,8 +3084,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,34 +3176,34 @@
         <v>2400</v>
       </c>
       <c r="E54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1800</v>
       </c>
       <c r="G54" s="3">
         <v>1800</v>
       </c>
       <c r="H54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I54" s="3">
         <v>1700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1800</v>
       </c>
       <c r="J54" s="3">
         <v>1800</v>
       </c>
       <c r="K54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="L54" s="3">
         <v>1900</v>
       </c>
       <c r="M54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N54" s="3">
         <v>2000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2100</v>
       </c>
       <c r="O54" s="3">
         <v>2100</v>
@@ -3087,19 +3212,22 @@
         <v>2100</v>
       </c>
       <c r="Q54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="R54" s="3">
         <v>2200</v>
       </c>
       <c r="S54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,37 +3271,38 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3190,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3209,12 +3342,12 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3230,8 +3363,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3254,20 +3387,23 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3283,8 +3419,8 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3310,37 +3446,40 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -3358,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,37 +3800,40 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -3694,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3957,7 +4130,7 @@
         <v>-18300</v>
       </c>
       <c r="E72" s="3">
-        <v>-18200</v>
+        <v>-18300</v>
       </c>
       <c r="F72" s="3">
         <v>-18200</v>
@@ -3966,46 +4139,49 @@
         <v>-18200</v>
       </c>
       <c r="H72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="I72" s="3">
         <v>-18100</v>
       </c>
       <c r="J72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-18000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-17900</v>
       </c>
       <c r="L72" s="3">
         <v>-17900</v>
       </c>
       <c r="M72" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="N72" s="3">
         <v>-17800</v>
       </c>
       <c r="O72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="P72" s="3">
         <v>-17700</v>
       </c>
       <c r="Q72" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="R72" s="3">
         <v>-17600</v>
       </c>
       <c r="S72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="T72" s="3">
         <v>-19500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,46 +4354,49 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1600</v>
       </c>
       <c r="G76" s="3">
         <v>1600</v>
       </c>
       <c r="H76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I76" s="3">
         <v>1700</v>
       </c>
       <c r="J76" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K76" s="3">
         <v>1800</v>
       </c>
       <c r="L76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M76" s="3">
         <v>1900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2000</v>
       </c>
       <c r="N76" s="3">
         <v>2000</v>
       </c>
       <c r="O76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="P76" s="3">
         <v>2100</v>
@@ -4220,16 +4405,19 @@
         <v>2100</v>
       </c>
       <c r="R76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S76" s="3">
         <v>2200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>300</v>
       </c>
       <c r="T76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,31 +4984,31 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4804,19 +5020,22 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,17 +5231,20 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5031,8 +5260,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,23 +5549,26 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5339,8 +5584,8 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,17 +5667,20 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5440,39 +5691,42 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>FECOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,100 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +816,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,75 +1101,87 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,22 +1257,24 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1232,13 +1286,13 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1247,25 +1301,31 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,13 +1333,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1291,13 +1351,13 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1306,25 +1366,31 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>1900</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,16 +1412,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1388,39 +1456,45 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-100</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1429,16 +1503,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
@@ -1453,19 +1527,25 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>1900</v>
       </c>
-      <c r="T21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,22 +1603,28 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-100</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1547,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1571,19 +1657,25 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>1900</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,22 +1798,28 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1724,16 +1828,16 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1748,33 +1852,39 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>1900</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1783,16 +1893,16 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1807,19 +1917,25 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,16 +2188,22 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2096,39 +2236,45 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -2137,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2161,19 +2307,25 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,22 +2383,28 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2255,16 +2413,16 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2279,83 +2437,95 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>200</v>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,17 +2698,23 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -2577,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,22 +2893,28 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2722,54 +2926,60 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3">
         <v>1800</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <v>1800</v>
       </c>
       <c r="G47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H47" s="3">
         <v>1700</v>
@@ -2799,31 +3009,37 @@
         <v>1700</v>
       </c>
       <c r="Q47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="R47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="S47" s="3">
         <v>2000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2839,49 +3055,55 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2907,32 +3129,38 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,28 +3283,34 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3087,11 +3327,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>2400</v>
+      <c r="D54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E54" s="3">
         <v>2400</v>
       </c>
       <c r="F54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G54" s="3">
         <v>1900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1800</v>
       </c>
       <c r="H54" s="3">
         <v>1800</v>
       </c>
       <c r="I54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>2100</v>
       </c>
       <c r="Q54" s="3">
         <v>2100</v>
       </c>
       <c r="R54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T54" s="3">
         <v>2200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,44 +3532,46 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3323,16 +3585,22 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3345,12 +3613,12 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3366,11 +3634,11 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3390,8 +3658,14 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3401,12 +3675,12 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3422,11 +3696,11 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3449,44 +3723,50 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>0</v>
+      <c r="D60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
@@ -3500,16 +3780,22 @@
         <v>0</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,44 +4113,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>0</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
@@ -3854,16 +4170,22 @@
         <v>0</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,19 +4463,25 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-18300</v>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E72" s="3">
         <v>-18300</v>
       </c>
       <c r="F72" s="3">
-        <v>-18200</v>
+        <v>-18300</v>
       </c>
       <c r="G72" s="3">
         <v>-18200</v>
@@ -4142,46 +4490,52 @@
         <v>-18200</v>
       </c>
       <c r="I72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="J72" s="3">
         <v>-18100</v>
       </c>
       <c r="K72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="M72" s="3">
         <v>-18000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-17900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-17900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-17700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-17600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-17600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-19500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
         <v>2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1600</v>
       </c>
       <c r="H76" s="3">
         <v>1600</v>
       </c>
       <c r="I76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J76" s="3">
         <v>1700</v>
       </c>
       <c r="K76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M76" s="3">
         <v>1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>2100</v>
       </c>
       <c r="R76" s="3">
         <v>2100</v>
       </c>
       <c r="S76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U76" s="3">
         <v>2200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,86 +4853,98 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -4563,16 +4953,16 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -4587,19 +4977,25 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,16 +5017,18 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,22 +5403,28 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4999,13 +5433,13 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5014,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5023,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5032,10 +5466,16 @@
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,22 +5688,28 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -5263,11 +5723,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5293,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,28 +6038,34 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>500</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>800</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
@@ -5587,11 +6079,11 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5611,8 +6103,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,37 +6168,43 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
@@ -5709,17 +6213,17 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-100</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -5727,6 +6231,12 @@
         <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>FECOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,103 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
-        <v>43921</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +825,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +893,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1133,8 +1152,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1142,11 +1161,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1154,12 +1173,12 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>-2000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1169,11 +1188,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1205,8 @@
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1284,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1271,25 +1297,25 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1298,20 +1324,20 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>-1900</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1319,13 +1345,16 @@
         <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,25 +1365,25 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1363,20 +1392,20 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>1900</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1384,13 +1413,16 @@
         <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,16 +1446,17 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1462,90 +1495,96 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>1900</v>
       </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1648,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>1900</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1784,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>1900</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>1900</v>
       </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,16 +2260,19 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2242,90 +2311,96 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>1900</v>
       </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>1900</v>
       </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
-        <v>43921</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,31 +2659,32 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2607,40 +2693,43 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R41" s="3">
         <v>400</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
       </c>
       <c r="U41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>300</v>
       </c>
       <c r="W41" s="3">
+        <v>300</v>
+      </c>
+      <c r="X41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,25 +2793,28 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2769,8 +2861,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2929,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,31 +2997,34 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
+        <v>500</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2932,48 +3033,51 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>1800</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3">
+        <v>1800</v>
       </c>
       <c r="F47" s="3">
         <v>1800</v>
@@ -2982,13 +3086,13 @@
         <v>1800</v>
       </c>
       <c r="H47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K47" s="3">
         <v>1700</v>
@@ -3015,7 +3119,7 @@
         <v>1700</v>
       </c>
       <c r="S47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="T47" s="3">
         <v>2000</v>
@@ -3023,37 +3127,40 @@
       <c r="U47" s="3">
         <v>2000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
+      <c r="V47" s="3">
+        <v>2000</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -3061,41 +3168,44 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3105,14 +3215,14 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -3135,32 +3245,35 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,32 +3405,35 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>200</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3333,8 +3452,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3354,8 +3473,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,52 +3541,55 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>2200</v>
       </c>
       <c r="E54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H54" s="3">
         <v>2400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>2400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1700</v>
       </c>
       <c r="K54" s="3">
         <v>1700</v>
       </c>
       <c r="L54" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M54" s="3">
         <v>1800</v>
       </c>
       <c r="N54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="O54" s="3">
         <v>1900</v>
       </c>
       <c r="P54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>2100</v>
       </c>
       <c r="R54" s="3">
         <v>2100</v>
@@ -3473,19 +3598,22 @@
         <v>2100</v>
       </c>
       <c r="T54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="U54" s="3">
         <v>2200</v>
       </c>
       <c r="V54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,22 +3663,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3558,7 +3688,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3567,13 +3697,13 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3591,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -3599,8 +3729,11 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3616,8 +3749,8 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
-        <v>200</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -3640,8 +3773,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3664,8 +3797,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3678,18 +3814,18 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3702,8 +3838,8 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3729,31 +3865,34 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -3762,13 +3901,13 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -3786,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
@@ -3794,8 +3933,11 @@
       <c r="W60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4001,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4069,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,31 +4273,34 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -4152,13 +4309,13 @@
         <v>0</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -4176,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
@@ -4184,8 +4341,11 @@
       <c r="W66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,31 +4639,34 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-18500</v>
       </c>
       <c r="E72" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-18300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-18300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-18200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-18100</v>
       </c>
       <c r="K72" s="3">
         <v>-18100</v>
@@ -4502,40 +4675,43 @@
         <v>-18100</v>
       </c>
       <c r="M72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="N72" s="3">
         <v>-18000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-17900</v>
       </c>
       <c r="O72" s="3">
         <v>-17900</v>
       </c>
       <c r="P72" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="Q72" s="3">
         <v>-17800</v>
       </c>
       <c r="R72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="S72" s="3">
         <v>-17700</v>
       </c>
       <c r="T72" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="U72" s="3">
         <v>-17600</v>
       </c>
       <c r="V72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="W72" s="3">
         <v>-19500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,31 +4911,34 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>2200</v>
       </c>
       <c r="E76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F76" s="3">
         <v>2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I76" s="3">
         <v>2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>1500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1700</v>
       </c>
       <c r="K76" s="3">
         <v>1700</v>
@@ -4762,22 +4947,22 @@
         <v>1700</v>
       </c>
       <c r="M76" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N76" s="3">
         <v>1800</v>
       </c>
       <c r="O76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P76" s="3">
         <v>1900</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2000</v>
       </c>
       <c r="Q76" s="3">
         <v>2000</v>
       </c>
       <c r="R76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="S76" s="3">
         <v>2100</v>
@@ -4786,16 +4971,19 @@
         <v>2100</v>
       </c>
       <c r="U76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V76" s="3">
         <v>2200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>300</v>
       </c>
       <c r="W76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
-        <v>43921</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>1900</v>
       </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5030,8 +5228,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5084,8 +5282,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,28 +5622,31 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -5439,19 +5655,19 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5463,19 +5679,22 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5718,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5784,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5920,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5705,17 +5934,17 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -5729,8 +5958,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5759,8 +5988,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6286,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6055,21 +6300,21 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>800</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>500</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6085,8 +6330,8 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6109,8 +6354,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,25 +6422,28 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>200</v>
@@ -6204,39 +6455,42 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>FECOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,107 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -828,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1155,8 +1175,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1164,11 +1184,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1176,12 +1196,12 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>-2000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1191,11 +1211,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1208,8 +1231,8 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1262,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1303,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1315,10 +1342,10 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1327,20 +1354,20 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>-1900</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
@@ -1348,13 +1375,16 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1371,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1383,10 +1413,10 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1395,20 +1425,20 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>1900</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1416,13 +1446,16 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1498,25 +1532,28 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1536,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
@@ -1545,69 +1582,72 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>1900</v>
       </c>
-      <c r="W21" s="3">
-        <v>-100</v>
-      </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1651,8 +1691,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1672,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1681,46 +1724,49 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>1900</v>
       </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1787,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,8 +1904,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1876,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1885,46 +1937,49 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>1900</v>
       </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1944,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1953,46 +2008,49 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>1900</v>
       </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2314,25 +2384,28 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2352,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2361,46 +2434,49 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>1900</v>
       </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2488,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2497,119 +2576,125 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>1900</v>
       </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2669,25 +2756,25 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2696,40 +2783,43 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S41" s="3">
         <v>400</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
       <c r="V41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W41" s="3">
         <v>300</v>
       </c>
       <c r="X41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,29 +2886,32 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2864,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3000,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3009,25 +3111,25 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>500</v>
       </c>
       <c r="I46" s="3">
+        <v>500</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -3036,40 +3138,43 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
       </c>
       <c r="X46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3095,7 +3200,7 @@
         <v>1800</v>
       </c>
       <c r="K47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L47" s="3">
         <v>1700</v>
@@ -3122,7 +3227,7 @@
         <v>1700</v>
       </c>
       <c r="T47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="U47" s="3">
         <v>2000</v>
@@ -3130,14 +3235,17 @@
       <c r="V47" s="3">
         <v>2000</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
+      <c r="W47" s="3">
+        <v>2000</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3162,8 +3270,8 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -3171,41 +3279,44 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3224,8 +3335,8 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -3248,32 +3359,35 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,17 +3525,20 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3428,15 +3548,15 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3455,8 +3575,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3476,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,55 +3667,58 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E54" s="3">
         <v>2200</v>
       </c>
       <c r="F54" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G54" s="3">
         <v>2300</v>
       </c>
       <c r="H54" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I54" s="3">
         <v>2400</v>
       </c>
       <c r="J54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1700</v>
       </c>
       <c r="L54" s="3">
         <v>1700</v>
       </c>
       <c r="M54" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N54" s="3">
         <v>1800</v>
       </c>
       <c r="O54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="P54" s="3">
         <v>1900</v>
       </c>
       <c r="Q54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R54" s="3">
         <v>2000</v>
-      </c>
-      <c r="R54" s="3">
-        <v>2100</v>
       </c>
       <c r="S54" s="3">
         <v>2100</v>
@@ -3601,19 +3727,22 @@
         <v>2100</v>
       </c>
       <c r="U54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="V54" s="3">
         <v>2200</v>
       </c>
       <c r="W54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3685,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3700,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3724,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -3732,31 +3863,34 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -3776,8 +3910,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3800,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3823,12 +3960,12 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3841,8 +3978,8 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3868,8 +4005,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3889,14 +4029,14 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -3904,13 +4044,13 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -3928,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W60" s="3">
         <v>100</v>
@@ -3936,13 +4076,16 @@
       <c r="X60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4004,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4072,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,13 +4431,16 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -4297,14 +4455,14 @@
         <v>0</v>
       </c>
       <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
@@ -4312,13 +4470,13 @@
         <v>0</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -4336,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W66" s="3">
         <v>100</v>
@@ -4344,8 +4502,11 @@
       <c r="X66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,34 +4813,37 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18500</v>
+        <v>-18600</v>
       </c>
       <c r="E72" s="3">
         <v>-18500</v>
       </c>
       <c r="F72" s="3">
-        <v>-18400</v>
+        <v>-18500</v>
       </c>
       <c r="G72" s="3">
         <v>-18400</v>
       </c>
       <c r="H72" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="I72" s="3">
         <v>-18300</v>
       </c>
       <c r="J72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-18200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-18100</v>
       </c>
       <c r="L72" s="3">
         <v>-18100</v>
@@ -4678,40 +4852,43 @@
         <v>-18100</v>
       </c>
       <c r="N72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-18000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-17900</v>
       </c>
       <c r="P72" s="3">
         <v>-17900</v>
       </c>
       <c r="Q72" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="R72" s="3">
         <v>-17800</v>
       </c>
       <c r="S72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="T72" s="3">
         <v>-17700</v>
       </c>
       <c r="U72" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="V72" s="3">
         <v>-17600</v>
       </c>
       <c r="W72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="X72" s="3">
         <v>-19500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,19 +5097,22 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E76" s="3">
         <v>2200</v>
       </c>
       <c r="F76" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G76" s="3">
         <v>2300</v>
@@ -4935,13 +5121,13 @@
         <v>2300</v>
       </c>
       <c r="I76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J76" s="3">
         <v>2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1700</v>
       </c>
       <c r="L76" s="3">
         <v>1700</v>
@@ -4950,22 +5136,22 @@
         <v>1700</v>
       </c>
       <c r="N76" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="O76" s="3">
         <v>1800</v>
       </c>
       <c r="P76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>2000</v>
       </c>
       <c r="R76" s="3">
         <v>2000</v>
       </c>
       <c r="S76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="T76" s="3">
         <v>2100</v>
@@ -4974,16 +5160,19 @@
         <v>2100</v>
       </c>
       <c r="V76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W76" s="3">
         <v>2200</v>
-      </c>
-      <c r="W76" s="3">
-        <v>300</v>
       </c>
       <c r="X76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5144,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -5153,46 +5348,49 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>1900</v>
       </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5231,8 +5430,8 @@
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5285,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,31 +5839,34 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5658,19 +5875,19 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5682,19 +5899,22 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5787,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,13 +6150,16 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-200</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
@@ -5940,15 +6170,15 @@
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5961,8 +6191,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5991,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,13 +6532,16 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>200</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
@@ -6306,18 +6552,18 @@
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6333,8 +6579,8 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6357,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,32 +6674,35 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -6458,39 +6710,42 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>FECOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1178,8 +1198,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1187,11 +1207,11 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1199,12 +1219,12 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>-2000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1214,11 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1234,8 +1257,8 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,13 +1338,14 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1333,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1345,10 +1372,10 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1357,20 +1384,20 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>-1900</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
@@ -1378,13 +1405,16 @@
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1404,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1416,10 +1446,10 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1428,20 +1458,20 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>1900</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -1449,13 +1479,16 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1535,25 +1569,28 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1585,54 +1622,57 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>1900</v>
       </c>
-      <c r="X21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1649,8 +1689,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1694,13 +1734,16 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1718,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1727,46 +1770,49 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>1900</v>
       </c>
-      <c r="X23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,13 +1956,16 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1931,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1940,51 +1992,54 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>1900</v>
       </c>
-      <c r="X26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2002,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -2011,46 +2066,49 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>1900</v>
       </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2387,30 +2457,33 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2428,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2437,46 +2510,49 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>1900</v>
       </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,13 +2622,16 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2570,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2579,122 +2658,128 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>1900</v>
       </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2759,25 +2846,25 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2786,40 +2873,43 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
       </c>
       <c r="S41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T41" s="3">
         <v>400</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
         <v>300</v>
       </c>
       <c r="Y41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2900,21 +2993,21 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3114,25 +3216,25 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -3141,40 +3243,43 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>400</v>
       </c>
       <c r="U46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
       </c>
       <c r="Y46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3203,7 +3308,7 @@
         <v>1800</v>
       </c>
       <c r="L47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="M47" s="3">
         <v>1700</v>
@@ -3230,7 +3335,7 @@
         <v>1700</v>
       </c>
       <c r="U47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="V47" s="3">
         <v>2000</v>
@@ -3238,14 +3343,17 @@
       <c r="W47" s="3">
         <v>2000</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
+      <c r="X47" s="3">
+        <v>2000</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3273,8 +3381,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -3282,41 +3390,44 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3338,8 +3449,8 @@
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3362,32 +3473,35 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3537,11 +3657,11 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3551,15 +3671,15 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3578,8 +3698,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3679,49 +3805,49 @@
         <v>2300</v>
       </c>
       <c r="E54" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F54" s="3">
         <v>2200</v>
       </c>
       <c r="G54" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H54" s="3">
         <v>2300</v>
       </c>
       <c r="I54" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J54" s="3">
         <v>2400</v>
       </c>
       <c r="K54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L54" s="3">
         <v>1900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1700</v>
       </c>
       <c r="M54" s="3">
         <v>1700</v>
       </c>
       <c r="N54" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="O54" s="3">
         <v>1800</v>
       </c>
       <c r="P54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="Q54" s="3">
         <v>1900</v>
       </c>
       <c r="R54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S54" s="3">
         <v>2000</v>
-      </c>
-      <c r="S54" s="3">
-        <v>2100</v>
       </c>
       <c r="T54" s="3">
         <v>2100</v>
@@ -3730,19 +3856,22 @@
         <v>2100</v>
       </c>
       <c r="V54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="W54" s="3">
         <v>2200</v>
       </c>
       <c r="X54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y54" s="3">
         <v>300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3819,13 +3950,13 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3834,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3858,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3892,8 +4026,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -3913,8 +4047,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3937,38 +4071,41 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3981,8 +4118,8 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4008,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4032,14 +4172,14 @@
         <v>0</v>
       </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
@@ -4047,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -4071,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X60" s="3">
         <v>100</v>
@@ -4079,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4088,7 +4231,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4589,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4443,7 +4601,7 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -4458,14 +4616,14 @@
         <v>0</v>
       </c>
       <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
@@ -4473,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
@@ -4497,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X66" s="3">
         <v>100</v>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4825,28 +4999,28 @@
         <v>-18600</v>
       </c>
       <c r="E72" s="3">
-        <v>-18500</v>
+        <v>-18600</v>
       </c>
       <c r="F72" s="3">
         <v>-18500</v>
       </c>
       <c r="G72" s="3">
-        <v>-18400</v>
+        <v>-18500</v>
       </c>
       <c r="H72" s="3">
         <v>-18400</v>
       </c>
       <c r="I72" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="J72" s="3">
         <v>-18300</v>
       </c>
       <c r="K72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-18200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-18100</v>
       </c>
       <c r="M72" s="3">
         <v>-18100</v>
@@ -4855,40 +5029,43 @@
         <v>-18100</v>
       </c>
       <c r="O72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="P72" s="3">
         <v>-18000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-17900</v>
       </c>
       <c r="Q72" s="3">
         <v>-17900</v>
       </c>
       <c r="R72" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="S72" s="3">
         <v>-17800</v>
       </c>
       <c r="T72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="U72" s="3">
         <v>-17700</v>
       </c>
       <c r="V72" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="W72" s="3">
         <v>-17600</v>
       </c>
       <c r="X72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-19500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,8 +5283,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5109,13 +5295,13 @@
         <v>2100</v>
       </c>
       <c r="E76" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F76" s="3">
         <v>2200</v>
       </c>
       <c r="G76" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H76" s="3">
         <v>2300</v>
@@ -5124,13 +5310,13 @@
         <v>2300</v>
       </c>
       <c r="J76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1700</v>
       </c>
       <c r="M76" s="3">
         <v>1700</v>
@@ -5139,22 +5325,22 @@
         <v>1700</v>
       </c>
       <c r="O76" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="P76" s="3">
         <v>1800</v>
       </c>
       <c r="Q76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R76" s="3">
         <v>1900</v>
-      </c>
-      <c r="R76" s="3">
-        <v>2000</v>
       </c>
       <c r="S76" s="3">
         <v>2000</v>
       </c>
       <c r="T76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="U76" s="3">
         <v>2100</v>
@@ -5163,16 +5349,19 @@
         <v>2100</v>
       </c>
       <c r="W76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X76" s="3">
         <v>2200</v>
-      </c>
-      <c r="X76" s="3">
-        <v>300</v>
       </c>
       <c r="Y76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,89 +5431,95 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5342,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -5351,46 +5546,49 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>1900</v>
       </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5433,8 +5632,8 @@
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5851,25 +6068,25 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5878,19 +6095,19 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5902,19 +6119,22 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,17 +6380,20 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6173,15 +6403,15 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6194,8 +6424,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,17 +6778,20 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6555,18 +6801,18 @@
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6582,8 +6828,8 @@
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6686,26 +6938,26 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6713,39 +6965,42 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1201,8 +1221,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1210,11 +1230,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1222,12 +1242,12 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>-2000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1237,11 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1260,8 +1283,8 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,17 +1365,18 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -1363,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1375,10 +1402,10 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1387,20 +1414,20 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>-1900</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
@@ -1408,13 +1435,16 @@
         <v>0</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1437,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1449,10 +1479,10 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1461,20 +1491,20 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>1900</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
@@ -1482,13 +1512,16 @@
         <v>0</v>
       </c>
       <c r="Y18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1572,25 +1606,28 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>2000</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1616,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
@@ -1625,46 +1662,49 @@
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1900</v>
       </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1674,8 +1714,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1692,8 +1732,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1737,16 +1777,19 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1764,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1773,46 +1816,49 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1900</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,16 +2008,19 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1986,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1995,54 +2047,57 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1900</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -2060,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -2069,46 +2124,49 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>1900</v>
       </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2460,33 +2530,36 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2504,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -2513,46 +2586,49 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1900</v>
       </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,16 +2701,19 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2652,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -2661,125 +2740,131 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1900</v>
       </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,13 +2920,14 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2849,25 +2936,25 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2876,40 +2963,43 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
       <c r="T41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U41" s="3">
         <v>400</v>
       </c>
       <c r="V41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="W41" s="3">
         <v>200</v>
       </c>
       <c r="X41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>300</v>
       </c>
       <c r="Z41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2996,21 +3089,21 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,13 +3303,16 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3219,25 +3321,25 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
       </c>
       <c r="I46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
       </c>
       <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -3246,40 +3348,43 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U46" s="3">
         <v>400</v>
       </c>
       <c r="V46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
       </c>
       <c r="X46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y46" s="3">
         <v>300</v>
       </c>
       <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3311,7 +3416,7 @@
         <v>1800</v>
       </c>
       <c r="M47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N47" s="3">
         <v>1700</v>
@@ -3338,7 +3443,7 @@
         <v>1700</v>
       </c>
       <c r="V47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="W47" s="3">
         <v>2000</v>
@@ -3346,14 +3451,17 @@
       <c r="X47" s="3">
         <v>2000</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
+      <c r="Y47" s="3">
+        <v>2000</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3384,8 +3492,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -3393,67 +3501,70 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3476,32 +3587,35 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3660,11 +3780,11 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3674,15 +3794,15 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3701,8 +3821,8 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3808,49 +3934,49 @@
         <v>2300</v>
       </c>
       <c r="F54" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G54" s="3">
         <v>2200</v>
       </c>
       <c r="H54" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I54" s="3">
         <v>2300</v>
       </c>
       <c r="J54" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K54" s="3">
         <v>2400</v>
       </c>
       <c r="L54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M54" s="3">
         <v>1900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1700</v>
       </c>
       <c r="N54" s="3">
         <v>1700</v>
       </c>
       <c r="O54" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="P54" s="3">
         <v>1800</v>
       </c>
       <c r="Q54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="R54" s="3">
         <v>1900</v>
       </c>
       <c r="S54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T54" s="3">
         <v>2000</v>
-      </c>
-      <c r="T54" s="3">
-        <v>2100</v>
       </c>
       <c r="U54" s="3">
         <v>2100</v>
@@ -3859,19 +3985,22 @@
         <v>2100</v>
       </c>
       <c r="W54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="X54" s="3">
         <v>2200</v>
       </c>
       <c r="Y54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3953,13 +4084,13 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3968,13 +4099,13 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3992,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4029,8 +4163,8 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -4050,8 +4184,8 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4100,15 +4237,15 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4121,8 +4258,8 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4175,14 +4315,14 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
@@ -4190,13 +4330,13 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
@@ -4214,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="3">
         <v>100</v>
@@ -4222,19 +4362,22 @@
       <c r="Z60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,19 +4747,22 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -4619,14 +4777,14 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
@@ -4634,13 +4792,13 @@
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
@@ -4658,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="3">
         <v>100</v>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,40 +5161,43 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18600</v>
+        <v>-18700</v>
       </c>
       <c r="E72" s="3">
         <v>-18600</v>
       </c>
       <c r="F72" s="3">
-        <v>-18500</v>
+        <v>-18600</v>
       </c>
       <c r="G72" s="3">
         <v>-18500</v>
       </c>
       <c r="H72" s="3">
-        <v>-18400</v>
+        <v>-18500</v>
       </c>
       <c r="I72" s="3">
         <v>-18400</v>
       </c>
       <c r="J72" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="K72" s="3">
         <v>-18300</v>
       </c>
       <c r="L72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-18200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-18100</v>
       </c>
       <c r="N72" s="3">
         <v>-18100</v>
@@ -5032,40 +5206,43 @@
         <v>-18100</v>
       </c>
       <c r="P72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-18000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-17900</v>
       </c>
       <c r="R72" s="3">
         <v>-17900</v>
       </c>
       <c r="S72" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="T72" s="3">
         <v>-17800</v>
       </c>
       <c r="U72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="V72" s="3">
         <v>-17700</v>
       </c>
       <c r="W72" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="X72" s="3">
         <v>-17600</v>
       </c>
       <c r="Y72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-19500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,25 +5469,28 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E76" s="3">
         <v>2100</v>
       </c>
       <c r="F76" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G76" s="3">
         <v>2200</v>
       </c>
       <c r="H76" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I76" s="3">
         <v>2300</v>
@@ -5313,13 +5499,13 @@
         <v>2300</v>
       </c>
       <c r="K76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L76" s="3">
         <v>2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1700</v>
       </c>
       <c r="N76" s="3">
         <v>1700</v>
@@ -5328,22 +5514,22 @@
         <v>1700</v>
       </c>
       <c r="P76" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="Q76" s="3">
         <v>1800</v>
       </c>
       <c r="R76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S76" s="3">
         <v>1900</v>
-      </c>
-      <c r="S76" s="3">
-        <v>2000</v>
       </c>
       <c r="T76" s="3">
         <v>2000</v>
       </c>
       <c r="U76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="V76" s="3">
         <v>2100</v>
@@ -5352,16 +5538,19 @@
         <v>2100</v>
       </c>
       <c r="X76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y76" s="3">
         <v>2200</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>300</v>
       </c>
       <c r="Z76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,95 +5623,101 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -5540,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -5549,46 +5744,49 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1900</v>
       </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5635,8 +5834,8 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,37 +6273,40 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -6098,19 +6315,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6122,19 +6339,22 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6392,11 +6622,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6406,15 +6636,15 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6427,8 +6657,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,20 +7024,23 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6804,18 +7050,18 @@
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6831,8 +7077,8 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6941,26 +7193,26 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -6968,39 +7220,42 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>FECOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,118 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +852,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +932,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1044,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1122,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1202,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1224,8 +1243,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1233,11 +1252,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1245,12 +1264,12 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>-2000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1260,16 +1279,19 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
@@ -1286,8 +1308,8 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1340,8 +1362,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1391,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,11 +1401,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1393,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1405,10 +1431,10 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1417,20 +1443,20 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>-1900</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
@@ -1438,13 +1464,16 @@
         <v>0</v>
       </c>
       <c r="Z17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,10 +1481,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1470,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1482,10 +1511,10 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1494,20 +1523,20 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>1900</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
@@ -1515,13 +1544,16 @@
         <v>0</v>
       </c>
       <c r="Z18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1581,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1609,25 +1642,28 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>2000</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1656,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
@@ -1665,46 +1701,49 @@
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1900</v>
       </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1717,8 +1756,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1735,8 +1774,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1780,19 +1819,22 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1810,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1819,46 +1861,49 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>1900</v>
       </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1979,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,19 +2059,22 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -2041,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -2050,57 +2101,60 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1900</v>
       </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -2118,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -2127,46 +2181,49 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1900</v>
       </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2379,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2539,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2533,36 +2602,39 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -2580,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -2589,46 +2661,49 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1900</v>
       </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,19 +2779,22 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2734,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2743,128 +2821,134 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1900</v>
       </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3006,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2939,25 +3025,25 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2966,40 +3052,43 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>300</v>
       </c>
       <c r="U41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V41" s="3">
         <v>400</v>
       </c>
       <c r="W41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="X41" s="3">
         <v>200</v>
       </c>
       <c r="Y41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z41" s="3">
         <v>300</v>
       </c>
       <c r="AA41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,13 +3164,16 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>400</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
@@ -3092,21 +3184,21 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -3152,8 +3244,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3324,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,16 +3404,19 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -3324,25 +3425,25 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>500</v>
       </c>
       <c r="L46" s="3">
+        <v>500</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -3351,40 +3452,43 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>400</v>
       </c>
       <c r="W46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
       </c>
       <c r="Y46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z46" s="3">
         <v>300</v>
       </c>
       <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3419,7 +3523,7 @@
         <v>1800</v>
       </c>
       <c r="N47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="O47" s="3">
         <v>1700</v>
@@ -3446,7 +3550,7 @@
         <v>1700</v>
       </c>
       <c r="W47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="X47" s="3">
         <v>2000</v>
@@ -3454,14 +3558,17 @@
       <c r="Y47" s="3">
         <v>2000</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
+      <c r="Z47" s="3">
+        <v>2000</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3495,8 +3602,8 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -3504,41 +3611,44 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3563,11 +3673,11 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3590,32 +3700,35 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,13 +3884,16 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>400</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -3783,11 +3902,11 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
+        <v>400</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3797,15 +3916,15 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3824,8 +3943,8 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3845,8 +3964,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4044,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3937,49 +4062,49 @@
         <v>2300</v>
       </c>
       <c r="G54" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H54" s="3">
         <v>2200</v>
       </c>
       <c r="I54" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J54" s="3">
         <v>2300</v>
       </c>
       <c r="K54" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L54" s="3">
         <v>2400</v>
       </c>
       <c r="M54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N54" s="3">
         <v>1900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1700</v>
       </c>
       <c r="O54" s="3">
         <v>1700</v>
       </c>
       <c r="P54" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="Q54" s="3">
         <v>1800</v>
       </c>
       <c r="R54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="S54" s="3">
         <v>1900</v>
       </c>
       <c r="T54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U54" s="3">
         <v>2000</v>
-      </c>
-      <c r="U54" s="3">
-        <v>2100</v>
       </c>
       <c r="V54" s="3">
         <v>2100</v>
@@ -3988,19 +4113,22 @@
         <v>2100</v>
       </c>
       <c r="X54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="Y54" s="3">
         <v>2200</v>
       </c>
       <c r="Z54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AA54" s="3">
         <v>300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4186,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4087,13 +4217,13 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -4102,13 +4232,13 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -4126,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
@@ -4134,31 +4264,34 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4166,8 +4299,8 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -4187,8 +4320,8 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4211,8 +4344,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4240,15 +4376,15 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4261,8 +4397,8 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4288,13 +4424,16 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -4318,14 +4457,14 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
@@ -4333,13 +4472,13 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
@@ -4357,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="3">
         <v>100</v>
@@ -4365,22 +4504,25 @@
       <c r="AA60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4442,8 +4584,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4664,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4904,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,13 +4916,13 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -4780,14 +4937,14 @@
         <v>0</v>
       </c>
       <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
@@ -4795,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -4819,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="3">
         <v>100</v>
@@ -4827,8 +4984,11 @@
       <c r="AA66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5334,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,34 +5346,34 @@
         <v>-18700</v>
       </c>
       <c r="E72" s="3">
-        <v>-18600</v>
+        <v>-18700</v>
       </c>
       <c r="F72" s="3">
         <v>-18600</v>
       </c>
       <c r="G72" s="3">
-        <v>-18500</v>
+        <v>-18600</v>
       </c>
       <c r="H72" s="3">
         <v>-18500</v>
       </c>
       <c r="I72" s="3">
-        <v>-18400</v>
+        <v>-18500</v>
       </c>
       <c r="J72" s="3">
         <v>-18400</v>
       </c>
       <c r="K72" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="L72" s="3">
         <v>-18300</v>
       </c>
       <c r="M72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-18200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-18100</v>
       </c>
       <c r="O72" s="3">
         <v>-18100</v>
@@ -5209,40 +5382,43 @@
         <v>-18100</v>
       </c>
       <c r="Q72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="R72" s="3">
         <v>-18000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-17900</v>
       </c>
       <c r="S72" s="3">
         <v>-17900</v>
       </c>
       <c r="T72" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="U72" s="3">
         <v>-17800</v>
       </c>
       <c r="V72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="W72" s="3">
         <v>-17700</v>
       </c>
       <c r="X72" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="Y72" s="3">
         <v>-17600</v>
       </c>
       <c r="Z72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-19500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5654,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,19 +5666,19 @@
         <v>2000</v>
       </c>
       <c r="E76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F76" s="3">
         <v>2100</v>
       </c>
       <c r="G76" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H76" s="3">
         <v>2200</v>
       </c>
       <c r="I76" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J76" s="3">
         <v>2300</v>
@@ -5502,13 +5687,13 @@
         <v>2300</v>
       </c>
       <c r="L76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M76" s="3">
         <v>2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1700</v>
       </c>
       <c r="O76" s="3">
         <v>1700</v>
@@ -5517,22 +5702,22 @@
         <v>1700</v>
       </c>
       <c r="Q76" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="R76" s="3">
         <v>1800</v>
       </c>
       <c r="S76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T76" s="3">
         <v>1900</v>
-      </c>
-      <c r="T76" s="3">
-        <v>2000</v>
       </c>
       <c r="U76" s="3">
         <v>2000</v>
       </c>
       <c r="V76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="W76" s="3">
         <v>2100</v>
@@ -5541,16 +5726,19 @@
         <v>2100</v>
       </c>
       <c r="Y76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Z76" s="3">
         <v>2200</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>300</v>
       </c>
       <c r="AA76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,101 +5814,107 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -5738,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -5747,46 +5941,49 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1900</v>
       </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,28 +6011,29 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5891,8 +6089,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,40 +6489,43 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -6318,19 +6534,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -6342,19 +6558,22 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6601,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6679,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6839,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6625,11 +6854,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6639,15 +6868,15 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6660,8 +6889,8 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6690,8 +6919,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6951,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7029,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,23 +7269,26 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7053,18 +7298,18 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7080,8 +7325,8 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7104,8 +7349,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7429,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7196,26 +7447,26 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -7223,39 +7474,42 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>FECOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -855,8 +859,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1045,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,8 +1266,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1255,11 +1275,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1267,12 +1287,12 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
         <v>-2000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1282,19 +1302,22 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1311,8 +1334,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1365,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,8 +1418,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1404,11 +1431,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1422,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1434,10 +1461,10 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1446,20 +1473,20 @@
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>-1900</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
@@ -1467,13 +1494,16 @@
         <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1484,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1502,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1514,10 +1544,10 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1526,20 +1556,20 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>1900</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
@@ -1547,13 +1577,16 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1645,25 +1679,28 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>2000</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1674,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1695,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
@@ -1704,46 +1741,49 @@
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y21" s="3">
         <v>0</v>
       </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1900</v>
       </c>
-      <c r="AA21" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1759,8 +1799,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1777,8 +1817,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1822,22 +1862,25 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1855,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1864,46 +1907,49 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>1900</v>
       </c>
-      <c r="AA23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1982,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,22 +2111,25 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -2095,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -2104,60 +2156,63 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>1900</v>
       </c>
-      <c r="AA26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -2175,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -2184,46 +2239,49 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>1900</v>
       </c>
-      <c r="AA27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2382,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2605,39 +2675,42 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -2655,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2664,46 +2737,49 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>1900</v>
       </c>
-      <c r="AA33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,22 +2858,25 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -2815,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2824,131 +2903,137 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>1900</v>
       </c>
-      <c r="AA35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3019,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -3028,25 +3115,25 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -3055,40 +3142,43 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>300</v>
       </c>
       <c r="V41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W41" s="3">
         <v>400</v>
       </c>
       <c r="X41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y41" s="3">
         <v>200</v>
       </c>
       <c r="Z41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA41" s="3">
         <v>300</v>
       </c>
       <c r="AB41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3167,16 +3257,19 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>400</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -3187,21 +3280,21 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -3247,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3327,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3407,8 +3506,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3416,10 +3518,10 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -3428,25 +3530,25 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
       </c>
       <c r="K46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
       </c>
       <c r="M46" s="3">
+        <v>500</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
@@ -3455,40 +3557,43 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
       </c>
       <c r="V46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W46" s="3">
         <v>400</v>
       </c>
       <c r="X46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y46" s="3">
         <v>200</v>
       </c>
       <c r="Z46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA46" s="3">
         <v>300</v>
       </c>
       <c r="AB46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3526,7 +3631,7 @@
         <v>1800</v>
       </c>
       <c r="O47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P47" s="3">
         <v>1700</v>
@@ -3553,7 +3658,7 @@
         <v>1700</v>
       </c>
       <c r="X47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="Y47" s="3">
         <v>2000</v>
@@ -3561,14 +3666,17 @@
       <c r="Z47" s="3">
         <v>2000</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>4</v>
+      <c r="AA47" s="3">
+        <v>2000</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3605,8 +3713,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -3614,41 +3722,44 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3676,11 +3787,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3703,32 +3814,35 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,16 +4004,19 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>400</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -3905,11 +4025,11 @@
         <v>400</v>
       </c>
       <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3919,15 +4039,15 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3946,8 +4066,8 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3967,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,8 +4170,11 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4065,49 +4191,49 @@
         <v>2300</v>
       </c>
       <c r="H54" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I54" s="3">
         <v>2200</v>
       </c>
       <c r="J54" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K54" s="3">
         <v>2300</v>
       </c>
       <c r="L54" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M54" s="3">
         <v>2400</v>
       </c>
       <c r="N54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O54" s="3">
         <v>1900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1700</v>
       </c>
       <c r="P54" s="3">
         <v>1700</v>
       </c>
       <c r="Q54" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="R54" s="3">
         <v>1800</v>
       </c>
       <c r="S54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="T54" s="3">
         <v>1900</v>
       </c>
       <c r="U54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V54" s="3">
         <v>2000</v>
-      </c>
-      <c r="V54" s="3">
-        <v>2100</v>
       </c>
       <c r="W54" s="3">
         <v>2100</v>
@@ -4116,19 +4242,22 @@
         <v>2100</v>
       </c>
       <c r="Y54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="Z54" s="3">
         <v>2200</v>
       </c>
       <c r="AA54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AB54" s="3">
         <v>300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,13 +4317,14 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -4220,13 +4351,13 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -4235,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -4259,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>100</v>
@@ -4267,16 +4398,19 @@
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -4293,8 +4427,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4302,8 +4436,8 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -4323,8 +4457,8 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4347,8 +4481,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4379,15 +4516,15 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4400,8 +4537,8 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4427,8 +4564,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4436,7 +4576,7 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -4460,14 +4600,14 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
@@ -4475,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>0</v>
@@ -4499,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA60" s="3">
         <v>100</v>
@@ -4507,8 +4647,11 @@
       <c r="AB60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4516,16 +4659,16 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4587,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4667,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,8 +5062,11 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4919,13 +5077,13 @@
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -4940,14 +5098,14 @@
         <v>0</v>
       </c>
       <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
@@ -4955,13 +5113,13 @@
         <v>0</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U66" s="3">
         <v>0</v>
@@ -4979,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="3">
         <v>100</v>
@@ -4987,8 +5145,11 @@
       <c r="AB66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5257,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,46 +5508,49 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18700</v>
+        <v>-18800</v>
       </c>
       <c r="E72" s="3">
         <v>-18700</v>
       </c>
       <c r="F72" s="3">
-        <v>-18600</v>
+        <v>-18700</v>
       </c>
       <c r="G72" s="3">
         <v>-18600</v>
       </c>
       <c r="H72" s="3">
-        <v>-18500</v>
+        <v>-18600</v>
       </c>
       <c r="I72" s="3">
         <v>-18500</v>
       </c>
       <c r="J72" s="3">
-        <v>-18400</v>
+        <v>-18500</v>
       </c>
       <c r="K72" s="3">
         <v>-18400</v>
       </c>
       <c r="L72" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="M72" s="3">
         <v>-18300</v>
       </c>
       <c r="N72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-18200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-18100</v>
       </c>
       <c r="P72" s="3">
         <v>-18100</v>
@@ -5385,40 +5559,43 @@
         <v>-18100</v>
       </c>
       <c r="R72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="S72" s="3">
         <v>-18000</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-17900</v>
       </c>
       <c r="T72" s="3">
         <v>-17900</v>
       </c>
       <c r="U72" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="V72" s="3">
         <v>-17800</v>
       </c>
       <c r="W72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="X72" s="3">
         <v>-17700</v>
       </c>
       <c r="Y72" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="Z72" s="3">
         <v>-17600</v>
       </c>
       <c r="AA72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-19500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,31 +5840,34 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E76" s="3">
         <v>2000</v>
       </c>
       <c r="F76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G76" s="3">
         <v>2100</v>
       </c>
       <c r="H76" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I76" s="3">
         <v>2200</v>
       </c>
       <c r="J76" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K76" s="3">
         <v>2300</v>
@@ -5690,13 +5876,13 @@
         <v>2300</v>
       </c>
       <c r="M76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N76" s="3">
         <v>2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1700</v>
       </c>
       <c r="P76" s="3">
         <v>1700</v>
@@ -5705,22 +5891,22 @@
         <v>1700</v>
       </c>
       <c r="R76" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="S76" s="3">
         <v>1800</v>
       </c>
       <c r="T76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U76" s="3">
         <v>1900</v>
-      </c>
-      <c r="U76" s="3">
-        <v>2000</v>
       </c>
       <c r="V76" s="3">
         <v>2000</v>
       </c>
       <c r="W76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="X76" s="3">
         <v>2100</v>
@@ -5729,16 +5915,19 @@
         <v>2100</v>
       </c>
       <c r="Z76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AA76" s="3">
         <v>2200</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>300</v>
       </c>
       <c r="AB76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,107 +6006,113 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -5935,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -5944,46 +6139,49 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>1900</v>
       </c>
-      <c r="AA81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6092,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6501,34 +6718,34 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -6537,19 +6754,19 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -6561,19 +6778,22 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6682,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6857,11 +7087,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6871,15 +7101,15 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6892,8 +7122,8 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -6922,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7032,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7281,17 +7527,17 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7301,18 +7547,18 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7328,8 +7574,8 @@
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -7352,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7432,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7450,26 +7702,26 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -7477,39 +7729,42 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FECOF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>FECOF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,8 +866,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1269,8 +1289,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1278,11 +1298,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1290,12 +1310,12 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
@@ -1305,22 +1325,25 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1337,8 +1360,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,8 +1445,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1434,11 +1461,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1452,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1464,10 +1491,10 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
@@ -1476,20 +1503,20 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
         <v>0</v>
       </c>
@@ -1497,13 +1524,16 @@
         <v>0</v>
       </c>
       <c r="AB17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1517,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1535,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1547,10 +1577,10 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
@@ -1559,20 +1589,20 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1900</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
         <v>0</v>
       </c>
@@ -1580,13 +1610,16 @@
         <v>0</v>
       </c>
       <c r="AB18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1682,25 +1716,28 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>2000</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1714,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1735,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
@@ -1744,46 +1781,49 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z21" s="3">
         <v>0</v>
       </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>1900</v>
       </c>
-      <c r="AB21" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1802,8 +1842,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1820,8 +1860,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1865,8 +1905,11 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1874,16 +1917,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1901,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1910,46 +1953,49 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>1900</v>
       </c>
-      <c r="AB23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,8 +2163,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2123,16 +2175,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -2150,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -2159,46 +2211,49 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>1900</v>
       </c>
-      <c r="AB26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2206,16 +2261,16 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -2233,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -2242,46 +2297,49 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>1900</v>
       </c>
-      <c r="AB27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2678,25 +2748,28 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>2000</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -2731,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2740,46 +2813,49 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>1900</v>
       </c>
-      <c r="AB33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,8 +2937,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2870,16 +2949,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -2897,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2906,134 +2985,140 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>1900</v>
       </c>
-      <c r="AB35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,8 +3180,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3109,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -3118,25 +3205,25 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -3145,40 +3232,43 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
       </c>
       <c r="U41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>300</v>
       </c>
       <c r="W41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X41" s="3">
         <v>400</v>
       </c>
       <c r="Y41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Z41" s="3">
         <v>200</v>
       </c>
       <c r="AA41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB41" s="3">
         <v>300</v>
       </c>
       <c r="AC41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3271,8 +3364,8 @@
       <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -3283,21 +3376,21 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3509,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3521,10 +3623,10 @@
         <v>400</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -3533,25 +3635,25 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
       </c>
       <c r="L46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
@@ -3560,40 +3662,43 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
       <c r="W46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X46" s="3">
         <v>400</v>
       </c>
       <c r="Y46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Z46" s="3">
         <v>200</v>
       </c>
       <c r="AA46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB46" s="3">
         <v>300</v>
       </c>
       <c r="AC46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3634,7 +3739,7 @@
         <v>1800</v>
       </c>
       <c r="P47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="Q47" s="3">
         <v>1700</v>
@@ -3661,7 +3766,7 @@
         <v>1700</v>
       </c>
       <c r="Y47" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="Z47" s="3">
         <v>2000</v>
@@ -3669,14 +3774,17 @@
       <c r="AA47" s="3">
         <v>2000</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>4</v>
+      <c r="AB47" s="3">
+        <v>2000</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3716,8 +3824,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -3725,41 +3833,44 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3790,11 +3901,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3817,32 +3928,35 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
+      <c r="V49" s="3">
+        <v>0</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4018,8 +4138,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>400</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -4028,11 +4148,11 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4042,15 +4162,15 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4069,8 +4189,8 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,8 +4296,11 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4194,49 +4320,49 @@
         <v>2300</v>
       </c>
       <c r="I54" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J54" s="3">
         <v>2200</v>
       </c>
       <c r="K54" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="L54" s="3">
         <v>2300</v>
       </c>
       <c r="M54" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N54" s="3">
         <v>2400</v>
       </c>
       <c r="O54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P54" s="3">
         <v>1900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1700</v>
       </c>
       <c r="Q54" s="3">
         <v>1700</v>
       </c>
       <c r="R54" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="S54" s="3">
         <v>1800</v>
       </c>
       <c r="T54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="U54" s="3">
         <v>1900</v>
       </c>
       <c r="V54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W54" s="3">
         <v>2000</v>
-      </c>
-      <c r="W54" s="3">
-        <v>2100</v>
       </c>
       <c r="X54" s="3">
         <v>2100</v>
@@ -4245,19 +4371,22 @@
         <v>2100</v>
       </c>
       <c r="Z54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="AA54" s="3">
         <v>2200</v>
       </c>
       <c r="AB54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AC54" s="3">
         <v>300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,17 +4448,18 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -4354,13 +4485,13 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4369,13 +4500,13 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -4393,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
         <v>100</v>
@@ -4401,19 +4532,22 @@
       <c r="AC57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -4430,8 +4564,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4439,8 +4573,8 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -4460,8 +4594,8 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4484,8 +4618,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4519,15 +4656,15 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4540,8 +4677,8 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4567,19 +4704,22 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -4603,14 +4743,14 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
@@ -4618,13 +4758,13 @@
         <v>0</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V60" s="3">
         <v>0</v>
@@ -4642,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="3">
         <v>100</v>
@@ -4650,8 +4790,11 @@
       <c r="AC60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4662,16 +4805,16 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
-      </c>
-      <c r="G61" s="3">
-        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4733,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,13 +5220,16 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
@@ -5080,13 +5238,13 @@
         <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -5101,14 +5259,14 @@
         <v>0</v>
       </c>
       <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
       <c r="Q66" s="3">
         <v>0</v>
       </c>
@@ -5116,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
       </c>
       <c r="U66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V66" s="3">
         <v>0</v>
@@ -5140,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="3">
         <v>100</v>
@@ -5148,8 +5306,11 @@
       <c r="AC66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,8 +5682,11 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5520,40 +5694,40 @@
         <v>-18800</v>
       </c>
       <c r="E72" s="3">
-        <v>-18700</v>
+        <v>-18800</v>
       </c>
       <c r="F72" s="3">
         <v>-18700</v>
       </c>
       <c r="G72" s="3">
-        <v>-18600</v>
+        <v>-18700</v>
       </c>
       <c r="H72" s="3">
         <v>-18600</v>
       </c>
       <c r="I72" s="3">
-        <v>-18500</v>
+        <v>-18600</v>
       </c>
       <c r="J72" s="3">
         <v>-18500</v>
       </c>
       <c r="K72" s="3">
-        <v>-18400</v>
+        <v>-18500</v>
       </c>
       <c r="L72" s="3">
         <v>-18400</v>
       </c>
       <c r="M72" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="N72" s="3">
         <v>-18300</v>
       </c>
       <c r="O72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="P72" s="3">
         <v>-18200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-18100</v>
       </c>
       <c r="Q72" s="3">
         <v>-18100</v>
@@ -5562,40 +5736,43 @@
         <v>-18100</v>
       </c>
       <c r="S72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="T72" s="3">
         <v>-18000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-17900</v>
       </c>
       <c r="U72" s="3">
         <v>-17900</v>
       </c>
       <c r="V72" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="W72" s="3">
         <v>-17800</v>
       </c>
       <c r="X72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="Y72" s="3">
         <v>-17700</v>
       </c>
       <c r="Z72" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="AA72" s="3">
         <v>-17600</v>
       </c>
       <c r="AB72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-19500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,8 +6026,11 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5852,25 +6038,25 @@
         <v>1900</v>
       </c>
       <c r="E76" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F76" s="3">
         <v>2000</v>
       </c>
       <c r="G76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H76" s="3">
         <v>2100</v>
       </c>
       <c r="I76" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J76" s="3">
         <v>2200</v>
       </c>
       <c r="K76" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="L76" s="3">
         <v>2300</v>
@@ -5879,13 +6065,13 @@
         <v>2300</v>
       </c>
       <c r="N76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O76" s="3">
         <v>2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1700</v>
       </c>
       <c r="Q76" s="3">
         <v>1700</v>
@@ -5894,22 +6080,22 @@
         <v>1700</v>
       </c>
       <c r="S76" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="T76" s="3">
         <v>1800</v>
       </c>
       <c r="U76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V76" s="3">
         <v>1900</v>
-      </c>
-      <c r="V76" s="3">
-        <v>2000</v>
       </c>
       <c r="W76" s="3">
         <v>2000</v>
       </c>
       <c r="X76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="Y76" s="3">
         <v>2100</v>
@@ -5918,16 +6104,19 @@
         <v>2100</v>
       </c>
       <c r="AA76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AB76" s="3">
         <v>2200</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>300</v>
       </c>
       <c r="AC76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,96 +6198,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6106,16 +6301,16 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -6133,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -6142,46 +6337,49 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>1900</v>
       </c>
-      <c r="AB81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,46 +6923,49 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -6757,19 +6974,19 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -6781,19 +6998,22 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7090,11 +7320,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7104,15 +7334,15 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7125,8 +7355,8 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,29 +7761,32 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7550,18 +7796,18 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7577,8 +7823,8 @@
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7705,26 +7957,26 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -7732,39 +7984,42 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>
